--- a/people.xlsx
+++ b/people.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaScript\lucky-spin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA8F956-F82A-4EDA-9D40-EB9D51958C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF4104D-9B1B-4931-8A2E-6A907EADF20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="152">
   <si>
     <t>US</t>
   </si>
@@ -45,21 +45,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>စက်ဘီး</t>
-  </si>
-  <si>
-    <t>ပန်ကာ</t>
-  </si>
-  <si>
-    <t>တီဗွီ</t>
-  </si>
-  <si>
-    <t>ရေခဲသေတ္တာ</t>
-  </si>
-  <si>
-    <t>အဝတ်ခြင်း</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -72,13 +57,430 @@
     <t>color</t>
   </si>
   <si>
-    <t>အမှိုက်ပုံး</t>
-  </si>
-  <si>
-    <t>ခေါင်းလျှော်ရည်</t>
-  </si>
-  <si>
-    <t>ထမင်းချိုင့်</t>
+    <t>မြစ်ကြီးနား</t>
+  </si>
+  <si>
+    <t>ဝိုင်းမော်</t>
+  </si>
+  <si>
+    <t>တနိုင်း</t>
+  </si>
+  <si>
+    <t>ချီဖွေ</t>
+  </si>
+  <si>
+    <t>မိုးညှင်း</t>
+  </si>
+  <si>
+    <t>မိုးကောင်း</t>
+  </si>
+  <si>
+    <t>ဗန်းမော်</t>
+  </si>
+  <si>
+    <t>ရွှေကူ</t>
+  </si>
+  <si>
+    <t>ပူတာအို</t>
+  </si>
+  <si>
+    <t>မချမ်းဘော</t>
+  </si>
+  <si>
+    <t>နောင်မွန်း</t>
+  </si>
+  <si>
+    <t>လွိုင်ကော်</t>
+  </si>
+  <si>
+    <t>ဒီမောဆို</t>
+  </si>
+  <si>
+    <t>ဖရူဆို</t>
+  </si>
+  <si>
+    <t>ဘောလခဲ</t>
+  </si>
+  <si>
+    <t>ဖာဆောင်း</t>
+  </si>
+  <si>
+    <t>ဘားအံ</t>
+  </si>
+  <si>
+    <t>လှိုင်းဘွဲ့</t>
+  </si>
+  <si>
+    <t>ကော့ကရိတ်</t>
+  </si>
+  <si>
+    <t>မြဝတီ</t>
+  </si>
+  <si>
+    <t>ဖာပွန်</t>
+  </si>
+  <si>
+    <t>ကြာအင်းဆိပ်ကြီး</t>
+  </si>
+  <si>
+    <t>သံတောင်ကြီး</t>
+  </si>
+  <si>
+    <t>တီးတိန်</t>
+  </si>
+  <si>
+    <t>ဖလမ်း</t>
+  </si>
+  <si>
+    <t>ဟားခါး</t>
+  </si>
+  <si>
+    <t>စစ်ကိုင်း</t>
+  </si>
+  <si>
+    <t>မြင်းမူ</t>
+  </si>
+  <si>
+    <t>ရွှေဘို</t>
+  </si>
+  <si>
+    <t>ရေဦး</t>
+  </si>
+  <si>
+    <t>ကန့်ဘလူ</t>
+  </si>
+  <si>
+    <t>ကျွန်းလှ</t>
+  </si>
+  <si>
+    <t>မုံရွာ</t>
+  </si>
+  <si>
+    <t>ချောင်းဦး</t>
+  </si>
+  <si>
+    <t>အရာတော်</t>
+  </si>
+  <si>
+    <t>ဘုတလင်</t>
+  </si>
+  <si>
+    <t>ယင်းမာပင်</t>
+  </si>
+  <si>
+    <t>ဆားလင်းကြီး</t>
+  </si>
+  <si>
+    <t>ကသာ</t>
+  </si>
+  <si>
+    <t>ဗန်းမောက်</t>
+  </si>
+  <si>
+    <t>ဝန်းသို</t>
+  </si>
+  <si>
+    <t>ကလေး</t>
+  </si>
+  <si>
+    <t>ကလေးဝ</t>
+  </si>
+  <si>
+    <t>မင်းကင်း</t>
+  </si>
+  <si>
+    <t>တမူး</t>
+  </si>
+  <si>
+    <t>မော်လိုက်</t>
+  </si>
+  <si>
+    <t>ဖောင်းပြင်</t>
+  </si>
+  <si>
+    <t>ခန္တီး</t>
+  </si>
+  <si>
+    <t>ဟုမ္မလင်း</t>
+  </si>
+  <si>
+    <t>ထားဝယ်</t>
+  </si>
+  <si>
+    <t>ရေဖြူ</t>
+  </si>
+  <si>
+    <t>လောင်းလုံး</t>
+  </si>
+  <si>
+    <t>သရက်ချောင်း</t>
+  </si>
+  <si>
+    <t>မြိတ်</t>
+  </si>
+  <si>
+    <t>ကျွန်းစု</t>
+  </si>
+  <si>
+    <t>ပုလော</t>
+  </si>
+  <si>
+    <t>တနင်္သာရီ</t>
+  </si>
+  <si>
+    <t>ကော့သောင်း</t>
+  </si>
+  <si>
+    <t>ဘုတ်ပြင်း</t>
+  </si>
+  <si>
+    <t>တောင်ငူ</t>
+  </si>
+  <si>
+    <t>ရေတာရှည်</t>
+  </si>
+  <si>
+    <t>ထန်းတပင်</t>
+  </si>
+  <si>
+    <t>ဖြူး</t>
+  </si>
+  <si>
+    <t>ညောင်လေးပင်</t>
+  </si>
+  <si>
+    <t>ကျောက်တံခါး</t>
+  </si>
+  <si>
+    <t>ရွှေကျင်</t>
+  </si>
+  <si>
+    <t>ကျောက်ကြီး</t>
+  </si>
+  <si>
+    <t>ပေါင်းတည်</t>
+  </si>
+  <si>
+    <t>မြို့သစ်</t>
+  </si>
+  <si>
+    <t>နတ်မောက်</t>
+  </si>
+  <si>
+    <t>ချောက်</t>
+  </si>
+  <si>
+    <t>ရေနံချောင်း</t>
+  </si>
+  <si>
+    <t>ငဖဲ</t>
+  </si>
+  <si>
+    <t>စလင်း</t>
+  </si>
+  <si>
+    <t>စေတုတ္တတရာ</t>
+  </si>
+  <si>
+    <t>သရက်</t>
+  </si>
+  <si>
+    <t>မင်းလှ</t>
+  </si>
+  <si>
+    <t>မင်းတုန်း</t>
+  </si>
+  <si>
+    <t>ကံမ</t>
+  </si>
+  <si>
+    <t>အောင်လံ</t>
+  </si>
+  <si>
+    <t>ဆင်ပေါင်ဝဲ</t>
+  </si>
+  <si>
+    <t>ပခုက္ကူ</t>
+  </si>
+  <si>
+    <t>ရေစကြို</t>
+  </si>
+  <si>
+    <t>မြိုင်</t>
+  </si>
+  <si>
+    <t>ပေါက်</t>
+  </si>
+  <si>
+    <t>ဆိပ်ဖြူ</t>
+  </si>
+  <si>
+    <t>ဂန့်ဂေါ</t>
+  </si>
+  <si>
+    <t>ထီးလင်း</t>
+  </si>
+  <si>
+    <t>ဆော</t>
+  </si>
+  <si>
+    <t>ပုသိမ်ကြီး</t>
+  </si>
+  <si>
+    <t>မတ္တရာ</t>
+  </si>
+  <si>
+    <t>ပြင်ဦးလွင်</t>
+  </si>
+  <si>
+    <t>တံတားဦး</t>
+  </si>
+  <si>
+    <t>ငါန်းဇွန်</t>
+  </si>
+  <si>
+    <t>မြင်းခြံ</t>
+  </si>
+  <si>
+    <t>တောင်သာ</t>
+  </si>
+  <si>
+    <t>ညောင်ဦး</t>
+  </si>
+  <si>
+    <t>ကျောက်ပန်းတောင်း</t>
+  </si>
+  <si>
+    <t>မလှိုင်</t>
+  </si>
+  <si>
+    <t>ကျိုက်မရော</t>
+  </si>
+  <si>
+    <t>သံဖြူဇရပ်</t>
+  </si>
+  <si>
+    <t>မုဒုံ</t>
+  </si>
+  <si>
+    <t>ရေး</t>
+  </si>
+  <si>
+    <t>သထုံ</t>
+  </si>
+  <si>
+    <t>ပေါင်</t>
+  </si>
+  <si>
+    <t>ကျိုက်ထို</t>
+  </si>
+  <si>
+    <t>ဘီးလင်း</t>
+  </si>
+  <si>
+    <t>စစ်တွေ</t>
+  </si>
+  <si>
+    <t>ကျောက်ဖြူ</t>
+  </si>
+  <si>
+    <t>အမ်း</t>
+  </si>
+  <si>
+    <t>တောင်ကုတ်</t>
+  </si>
+  <si>
+    <t>မာန်အောင်</t>
+  </si>
+  <si>
+    <t>တောင်ကြီး</t>
+  </si>
+  <si>
+    <t>ရပ်စောက်</t>
+  </si>
+  <si>
+    <t>ကလော</t>
+  </si>
+  <si>
+    <t>ညောင်ရွှေ</t>
+  </si>
+  <si>
+    <t>ဟိုပုံး</t>
+  </si>
+  <si>
+    <t>ဆီဆိုင်</t>
+  </si>
+  <si>
+    <t>ပင်လောင်း</t>
+  </si>
+  <si>
+    <t>ရွာငံ</t>
+  </si>
+  <si>
+    <t>လွိုင်လင်</t>
+  </si>
+  <si>
+    <t>လဲချား</t>
+  </si>
+  <si>
+    <t>မိုင်းကိုင်</t>
+  </si>
+  <si>
+    <t>ကွန်ဟိန်း</t>
+  </si>
+  <si>
+    <t>ကျေးသီး</t>
+  </si>
+  <si>
+    <t>မောက်မယ်</t>
+  </si>
+  <si>
+    <t>မိုင်းပန်</t>
+  </si>
+  <si>
+    <t>တန့်ယန်း</t>
+  </si>
+  <si>
+    <t>မိုင်းရယ်</t>
+  </si>
+  <si>
+    <t>မူဆယ်</t>
+  </si>
+  <si>
+    <t>ဟိုပန်</t>
+  </si>
+  <si>
+    <t>မိုင်းမော</t>
+  </si>
+  <si>
+    <t>ပန်ဝိုင်</t>
+  </si>
+  <si>
+    <t>ပန်ဆမ်း(ပန်ခမ်း)</t>
+  </si>
+  <si>
+    <t>နားဖန်း</t>
+  </si>
+  <si>
+    <t>မက်မန်း</t>
+  </si>
+  <si>
+    <t>မိုင်းခတ်</t>
+  </si>
+  <si>
+    <t>မိုင်းလား</t>
+  </si>
+  <si>
+    <t>မိုင်းဆတ်</t>
+  </si>
+  <si>
+    <t>မိုင်းတုံ</t>
+  </si>
+  <si>
+    <t>တာချီလိတ်</t>
+  </si>
+  <si>
+    <t>မိုင်းယောင်း</t>
   </si>
 </sst>
 </file>
@@ -396,26 +798,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A49"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -423,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -437,7 +839,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -451,7 +853,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -465,7 +867,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -479,7 +881,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -514,7 +916,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -528,7 +930,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -542,7 +944,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -556,7 +958,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -570,7 +972,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -581,7 +983,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -589,7 +991,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -597,7 +999,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -605,7 +1007,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -619,7 +1021,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -633,7 +1035,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -647,7 +1049,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -661,7 +1063,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -672,7 +1074,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -680,7 +1082,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -688,7 +1090,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,7 +1098,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -710,7 +1112,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -724,7 +1126,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -738,7 +1140,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -752,7 +1154,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -763,7 +1165,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -771,7 +1173,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -779,7 +1181,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -787,7 +1189,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -801,7 +1203,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -815,7 +1217,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -829,7 +1231,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -843,7 +1245,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -854,7 +1256,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -862,7 +1264,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -870,7 +1272,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -878,7 +1280,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
@@ -892,7 +1294,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
@@ -906,7 +1308,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -920,7 +1322,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -934,7 +1336,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -945,7 +1347,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -953,15 +1355,1091 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>91</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>93</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>94</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>98</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>99</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>100</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>101</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>102</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>107</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>108</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>109</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>110</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>114</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>116</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>117</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>118</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>122</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>123</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>124</v>
+      </c>
+      <c r="C116" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>125</v>
+      </c>
+      <c r="C117" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>126</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>130</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>131</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>132</v>
+      </c>
+      <c r="C124" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>133</v>
+      </c>
+      <c r="C125" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>134</v>
+      </c>
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C130" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>139</v>
+      </c>
+      <c r="C131" t="s">
+        <v>4</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>140</v>
+      </c>
+      <c r="C132" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>141</v>
+      </c>
+      <c r="C133" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>142</v>
+      </c>
+      <c r="C134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>146</v>
+      </c>
+      <c r="C138" t="s">
+        <v>4</v>
+      </c>
+      <c r="D138" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>147</v>
+      </c>
+      <c r="C139" t="s">
+        <v>4</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>148</v>
+      </c>
+      <c r="C140" t="s">
+        <v>5</v>
+      </c>
+      <c r="D140" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>149</v>
+      </c>
+      <c r="C141" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>150</v>
+      </c>
+      <c r="C142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
